--- a/sem2/SystemLinUr/graph.xlsx
+++ b/sem2/SystemLinUr/graph.xlsx
@@ -53,7 +53,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -68,10 +68,2063 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Гауса-Джордана</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.8928258967629044E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.8966272965879265"/>
+          <c:h val="0.72088764946048411"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$A$1:$A$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.1E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.28599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.753</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.486</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0880000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-91EE-44C7-810F-66467085015F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="189796719"/>
+        <c:axId val="189793391"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="189796719"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="189793391"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="189793391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="189796719"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Крамера</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.39556933508311465"/>
+          <c:y val="4.6296296296296294E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$1:$M$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.23400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.254</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27600000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8DCD-4B99-A9D4-7B1027A865B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="148239663"/>
+        <c:axId val="148244655"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="148239663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="148244655"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="148244655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="148239663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="114300"/>
+          <a:ext cx="581025" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Время</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1468800" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11287125" y="2200275"/>
+          <a:ext cx="1468800" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>количество</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> итераций</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1468800" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4076700" y="2257425"/>
+          <a:ext cx="1468800" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>количество</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100" baseline="0"/>
+            <a:t> итераций</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.00625</cdr:x>
+      <cdr:y>0.03125</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.11875</cdr:x>
+      <cdr:y>0.12847</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="28574" y="85725"/>
+          <a:ext cx="514351" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100"/>
+            <a:t>Время</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -109,7 +2162,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -181,7 +2234,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -331,12 +2384,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y5" sqref="Y5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>2E-3</v>
+      </c>
+      <c r="M1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>3.1E-2</v>
+      </c>
+      <c r="M2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>0.17</v>
+      </c>
+      <c r="M3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>0.14099999999999999</v>
+      </c>
+      <c r="M4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="M5">
+        <v>3.9E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>0.753</v>
+      </c>
+      <c r="M6">
+        <v>0.13400000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="M7">
+        <v>0.21199999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>0.99</v>
+      </c>
+      <c r="M8">
+        <v>0.23400000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1.486</v>
+      </c>
+      <c r="M9">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2.0880000000000001</v>
+      </c>
+      <c r="M10">
+        <v>0.27600000000000002</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>